--- a/data/JPNS.xlsx
+++ b/data/JPNS.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -393,6 +408,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>JPNS 101 or consent of instructor.</t>
+          <t>JPNS 101 or consent of instructor.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -432,10 +477,25 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>JPNS 102 or consent of instructor.</t>
+          <t>JPNS 102 or consent of instructor.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JPNS 103 or consent of instructor.</t>
+          <t>JPNS 103 or consent of instructor.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F</t>
         </is>
